--- a/SYS_DEV/Columbia/V0/V0.7/v0.7.0/BOM-SPECIES-Camden-v0.7.0.xlsx
+++ b/SYS_DEV/Columbia/V0/V0.7/v0.7.0/BOM-SPECIES-Camden-v0.7.0.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\Smart-Penetrometer-with-Edge-Computing-and-Intelligent-Embedded-Systems\SYS_DEV\Columbia\V0\V0.7\v0.7.0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8b764c3f208c2f07/Documents/GitHub/species/SYS_DEV/Columbia/V0/V0.7/v0.7.0/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE77A310-AC44-4EE9-84E2-71423FF83079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:1_{DE77A310-AC44-4EE9-84E2-71423FF83079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6CA46E17-7D14-4E36-98EF-394F693830E4}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FDAE7DA4-9528-4FC7-A320-70DA50473DCE}"/>
+    <workbookView xWindow="0" yWindow="1656" windowWidth="23028" windowHeight="10584" xr2:uid="{FDAE7DA4-9528-4FC7-A320-70DA50473DCE}"/>
   </bookViews>
   <sheets>
     <sheet name="bill_of_materials" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
   <si>
     <t>Total Cost</t>
   </si>
@@ -123,6 +123,30 @@
   </si>
   <si>
     <t>power plut</t>
+  </si>
+  <si>
+    <t>outer brass tube - spike</t>
+  </si>
+  <si>
+    <t>inner brass tube - spike</t>
+  </si>
+  <si>
+    <t>abs tube for spike</t>
+  </si>
+  <si>
+    <t>1 ft</t>
+  </si>
+  <si>
+    <t>6 ft</t>
+  </si>
+  <si>
+    <t>https://www.grainger.com/product/360-Brass-Rod-1-4-in-Outside-2ABL8?opr=ODOH&amp;analytics=FM:Order%20History</t>
+  </si>
+  <si>
+    <t>https://www.grainger.com/product/260-Brass-Round-Tube-1-2-in-48KU75?opr=ODOH&amp;analytics=FM:Order%20History</t>
+  </si>
+  <si>
+    <t>https://www.grainger.com/product/ABS-Tube-Stock-12-in-Lg-60DK39?opr=ODOH&amp;analytics=FM:Order%20History</t>
   </si>
 </sst>
 </file>
@@ -529,25 +553,25 @@
   <dimension ref="A1:K40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.41796875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="74" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" customWidth="1"/>
-    <col min="6" max="6" width="69.42578125" customWidth="1"/>
+    <col min="3" max="3" width="7.15625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.26171875" customWidth="1"/>
+    <col min="6" max="6" width="69.41796875" customWidth="1"/>
     <col min="7" max="7" width="76" customWidth="1"/>
-    <col min="8" max="8" width="83.5703125" customWidth="1"/>
-    <col min="9" max="9" width="62.5703125" customWidth="1"/>
-    <col min="10" max="10" width="55.85546875" customWidth="1"/>
+    <col min="8" max="8" width="83.578125" customWidth="1"/>
+    <col min="9" max="9" width="62.578125" customWidth="1"/>
+    <col min="10" max="10" width="55.83984375" customWidth="1"/>
     <col min="11" max="11" width="51" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -582,7 +606,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -607,7 +631,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -621,7 +645,7 @@
         <v>9.99</v>
       </c>
       <c r="E3" s="6">
-        <f t="shared" ref="E3:E33" si="0">C3*D3</f>
+        <f t="shared" ref="E3:E6" si="0">C3*D3</f>
         <v>9.99</v>
       </c>
       <c r="F3" s="3" t="s">
@@ -629,7 +653,7 @@
       </c>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
@@ -654,7 +678,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
@@ -677,7 +701,7 @@
       <c r="G5" s="3"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2" t="s">
         <v>22</v>
       </c>
@@ -700,35 +724,65 @@
       <c r="G6" s="5"/>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
+    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="3"/>
+      <c r="C7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="6">
+        <v>5.89</v>
+      </c>
+      <c r="E7" s="6">
+        <v>5.89</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="G7" s="5"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
+      <c r="C8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="6">
+        <v>17.29</v>
+      </c>
+      <c r="E8" s="6">
+        <v>17.29</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="3"/>
+      <c r="C9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="6">
+        <v>6.42</v>
+      </c>
+      <c r="E9" s="6">
+        <v>6.42</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
     </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -738,7 +792,7 @@
       <c r="G10" s="3"/>
       <c r="H10" s="5"/>
     </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -747,7 +801,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="5"/>
     </row>
-    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="2"/>
       <c r="B12" s="5"/>
       <c r="C12" s="2"/>
@@ -756,7 +810,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="5"/>
     </row>
-    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -764,7 +818,7 @@
       <c r="E13" s="6"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -777,7 +831,7 @@
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
     </row>
-    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -786,7 +840,7 @@
       <c r="F15" s="3"/>
       <c r="G15" s="5"/>
     </row>
-    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -795,7 +849,7 @@
       <c r="F16" s="3"/>
       <c r="G16" s="5"/>
     </row>
-    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -804,7 +858,7 @@
       <c r="F17" s="3"/>
       <c r="G17" s="5"/>
     </row>
-    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -813,7 +867,7 @@
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -822,7 +876,7 @@
       <c r="F19" s="3"/>
       <c r="G19" s="5"/>
     </row>
-    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -831,7 +885,7 @@
       <c r="F20" s="3"/>
       <c r="G20" s="5"/>
     </row>
-    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -840,7 +894,7 @@
       <c r="F21" s="3"/>
       <c r="G21" s="5"/>
     </row>
-    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -849,7 +903,7 @@
       <c r="F22" s="3"/>
       <c r="G22" s="5"/>
     </row>
-    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -858,7 +912,7 @@
       <c r="F23" s="3"/>
       <c r="G23" s="5"/>
     </row>
-    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -867,7 +921,7 @@
       <c r="F24" s="3"/>
       <c r="G24" s="5"/>
     </row>
-    <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -876,7 +930,7 @@
       <c r="F25" s="3"/>
       <c r="G25" s="5"/>
     </row>
-    <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -885,7 +939,7 @@
       <c r="F26" s="3"/>
       <c r="G26" s="5"/>
     </row>
-    <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -894,7 +948,7 @@
       <c r="F27" s="3"/>
       <c r="G27" s="5"/>
     </row>
-    <row r="28" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -903,7 +957,7 @@
       <c r="F28" s="3"/>
       <c r="G28" s="5"/>
     </row>
-    <row r="29" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -912,7 +966,7 @@
       <c r="F29" s="3"/>
       <c r="G29" s="5"/>
     </row>
-    <row r="30" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="2"/>
       <c r="B30" s="5"/>
       <c r="C30" s="2"/>
@@ -921,7 +975,7 @@
       <c r="F30" s="3"/>
       <c r="G30" s="5"/>
     </row>
-    <row r="31" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -930,7 +984,7 @@
       <c r="F31" s="3"/>
       <c r="G31" s="5"/>
     </row>
-    <row r="32" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -940,7 +994,7 @@
       <c r="G32" s="3"/>
       <c r="H32" s="5"/>
     </row>
-    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -948,7 +1002,7 @@
       <c r="E33" s="6"/>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -957,7 +1011,7 @@
       <c r="F34" s="3"/>
       <c r="G34" s="5"/>
     </row>
-    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -966,12 +1020,12 @@
       </c>
       <c r="E35" s="6">
         <f>SUM(E2:E34)</f>
-        <v>6802.17</v>
+        <v>6831.77</v>
       </c>
       <c r="F35" s="3"/>
       <c r="G35" s="5"/>
     </row>
-    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -980,7 +1034,7 @@
       <c r="F36" s="3"/>
       <c r="G36" s="5"/>
     </row>
-    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -988,7 +1042,7 @@
       <c r="E37" s="6"/>
       <c r="F37" s="3"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -996,7 +1050,7 @@
       <c r="E38" s="2"/>
       <c r="F38" s="3"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -1004,7 +1058,7 @@
       <c r="E39" s="2"/>
       <c r="F39" s="3"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
